--- a/Input_data_KMC_Lateral/Test_Data_Tracking.xlsx
+++ b/Input_data_KMC_Lateral/Test_Data_Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klkusima/Library/CloudStorage/OneDrive-UniversityOfHouston/MiKi/Input_data_KMC_Lateral/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofh-my.sharepoint.com/personal/klkusima_cougarnet_uh_edu/Documents/MiKi/Input_data_KMC_Lateral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCB06B8-DBDD-FE40-A7C0-42F80F7EACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0BCB06B8-DBDD-FE40-A7C0-42F80F7EACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72BDE6A2-F362-AD47-A3D1-C4FFB6D24ED0}"/>
   <bookViews>
-    <workbookView xWindow="-75960" yWindow="-500" windowWidth="38400" windowHeight="19580" activeTab="1" xr2:uid="{17E0E174-3990-3F44-9F9C-F29E39B1D74C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{17E0E174-3990-3F44-9F9C-F29E39B1D74C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,10 +75,6 @@
     <t>Time (extrapolation)</t>
   </si>
   <si>
-    <t>A = 0.33
-B = 0.33</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 𝑋(𝑂2) = 0.67
  𝑋(𝐶𝑂) = 0.33</t>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>A = 0.50
+B = 0.50</t>
   </si>
 </sst>
 </file>
@@ -144,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -298,11 +298,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,66 +351,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,6 +437,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A30925-47ED-716F-73DC-0D1ECC40A261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978900" y="393700"/>
+          <a:ext cx="4419600" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73268AAE-67AD-B14A-A7C2-1FAB70C074A9}">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,17 +805,17 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -741,7 +836,7 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -800,7 +895,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1310,8 +1405,8 @@
       <c r="I33" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C38" s="5" t="s">
-        <v>15</v>
+      <c r="C38" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>1</v>
@@ -1322,33 +1417,33 @@
       <c r="F38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="F39" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="9"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1361,6 +1456,7 @@
     <mergeCell ref="G39:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1368,399 +1464,399 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18BBA87-5FC3-D74F-8777-63AA639FAB4F}">
   <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="10"/>
+      <c r="N3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="13">
         <v>11</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="5">
         <v>0.11</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="13">
         <v>20</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="5">
         <v>0.22</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="13">
         <v>28</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="5">
         <v>0.33</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="13">
         <v>35</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="5">
         <v>0.44</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="5">
         <v>0.11</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="13">
         <v>12</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <v>0.11</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="5">
         <v>0.11</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="13">
         <v>21</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="5">
         <v>0.22</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="5">
         <v>0.11</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="13">
         <v>29</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="5">
         <v>0.33</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="5">
         <v>0.11</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="13">
         <v>36</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="5">
         <v>0.44</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="7">
         <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <v>0.22</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="13">
         <v>13</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="5">
         <v>0.11</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>0.22</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="13">
         <v>22</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="5">
         <v>0.22</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="5">
         <v>0.22</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="13">
         <v>30</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="5">
         <v>0.33</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="5">
         <v>0.22</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="13">
         <v>37</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="5">
         <v>0.44</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="7">
         <v>0.22</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="5">
         <v>0.33</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="13">
         <v>14</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <v>0.11</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="5">
         <v>0.33</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="13">
         <v>23</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="5">
         <v>0.22</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="5">
         <v>0.33</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="13">
         <v>31</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="5">
         <v>0.33</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="5">
         <v>0.33</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="13">
         <v>38</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="5">
         <v>0.44</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="7">
         <v>0.33</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="5">
         <v>0.11</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="13">
         <v>15</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="5">
         <v>0.11</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>0.44</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="13">
         <v>24</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="5">
         <v>0.22</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="5">
         <v>0.44</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="13">
         <v>32</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="5">
         <v>0.33</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="5">
         <v>0.44</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="13">
         <v>39</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="5">
         <v>0.44</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="7">
         <v>0.44</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>6</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="13">
         <v>16</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="5">
         <v>0.11</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="13">
         <v>25</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="5">
         <v>0.22</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="13">
         <v>33</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="5">
         <v>0.33</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="13">
         <v>40</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="5">
         <v>0.44</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="7">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="5">
         <v>0.66</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="13">
         <v>17</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="5">
         <v>0.11</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>0.66</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="13">
         <v>26</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="5">
         <v>0.22</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="5">
         <v>0.66</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="13">
         <v>34</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="5">
         <v>0.33</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="5">
         <v>0.66</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="19"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="5">
         <v>0.77</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="13">
         <v>18</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="5">
         <v>0.11</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="5">
         <v>0.77</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="13">
         <v>27</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="5">
         <v>0.22</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="5">
         <v>0.77</v>
       </c>
       <c r="J11" s="2"/>
@@ -1768,25 +1864,25 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="19"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="5">
         <v>0.88</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="13">
         <v>19</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="5">
         <v>0.11</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="5">
         <v>0.88</v>
       </c>
       <c r="G12" s="2"/>
@@ -1797,199 +1893,199 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="19"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="15">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="6">
         <v>0</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="14" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="10"/>
+      <c r="K15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14" t="s">
+      <c r="M15" s="10"/>
+      <c r="N15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="16" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+      <c r="A16" s="12">
         <v>41</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="5">
         <v>0</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="13">
         <v>46</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="5">
         <v>0.66</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="5">
         <v>0</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="13">
         <v>50</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="5">
         <v>0.77</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="13">
         <v>53</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="5">
         <v>0.88</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="5">
         <v>0</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="13">
         <v>55</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="5">
         <v>1</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="12">
         <v>42</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="5">
         <v>0.11</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="13">
         <v>47</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="5">
         <v>0.66</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="5">
         <v>0.11</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="13">
         <v>51</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="5">
         <v>0.77</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="5">
         <v>0.11</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="13">
         <v>54</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="5">
         <v>0.88</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="5">
         <v>0.11</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="19"/>
+      <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+      <c r="A18" s="12">
         <v>43</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="5">
         <v>0.22</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="13">
         <v>48</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="5">
         <v>0.66</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="5">
         <v>0.22</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="13">
         <v>52</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="5">
         <v>0.77</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="5">
         <v>0.22</v>
       </c>
       <c r="J18" s="2"/>
@@ -1997,25 +2093,25 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="19"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="A19" s="12">
         <v>44</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="5">
         <v>0.33</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="13">
         <v>49</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="5">
         <v>0.66</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="5">
         <v>0.33</v>
       </c>
       <c r="G19" s="2"/>
@@ -2026,30 +2122,30 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="19"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="15">
         <v>45</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="6">
         <v>0.44</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_data_KMC_Lateral/Test_Data_Tracking.xlsx
+++ b/Input_data_KMC_Lateral/Test_Data_Tracking.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofh-my.sharepoint.com/personal/klkusima_cougarnet_uh_edu/Documents/MiKi/Input_data_KMC_Lateral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{0BCB06B8-DBDD-FE40-A7C0-42F80F7EACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72BDE6A2-F362-AD47-A3D1-C4FFB6D24ED0}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{0BCB06B8-DBDD-FE40-A7C0-42F80F7EACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96ACB542-08B6-004C-A10F-5900B531D40F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{17E0E174-3990-3F44-9F9C-F29E39B1D74C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{17E0E174-3990-3F44-9F9C-F29E39B1D74C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="MNRSE Comparisons" sheetId="6" r:id="rId1"/>
+    <sheet name="ML_Testing_RandomForest_NRMSE" sheetId="4" r:id="rId2"/>
+    <sheet name="ML_Testing_ANN_3_64_NRMSE" sheetId="5" r:id="rId3"/>
+    <sheet name="ML_Testing_XGBOOST_NRMSE" sheetId="1" r:id="rId4"/>
+    <sheet name="ML_Dataset_Initial_Coverages" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MNRSE Comparisons'!$A$1:$H$31</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="30">
   <si>
     <t>Initial Cov</t>
   </si>
@@ -63,13 +69,7 @@
     <t>Non-Lateral</t>
   </si>
   <si>
-    <t>Never Before Seen Characteristics</t>
-  </si>
-  <si>
     <t>Lateral</t>
-  </si>
-  <si>
-    <t>RMSE Result (Experiment)</t>
   </si>
   <si>
     <t>Time (extrapolation)</t>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>x2</t>
-  </si>
-  <si>
-    <t>Initial Cov.   A=O* ,B=CO*</t>
   </si>
   <si>
     <t>373 K</t>
@@ -97,12 +94,57 @@
     <t>A = 0.50
 B = 0.50</t>
   </si>
+  <si>
+    <t>No Change Means</t>
+  </si>
+  <si>
+    <t>x1 (50s)</t>
+  </si>
+  <si>
+    <t>(MNRMSE) Lateral</t>
+  </si>
+  <si>
+    <t>NRMSE CO</t>
+  </si>
+  <si>
+    <t>(MNRMSE) Non-Lateral</t>
+  </si>
+  <si>
+    <t>NRMSE O2</t>
+  </si>
+  <si>
+    <t>NRMSE CO2</t>
+  </si>
+  <si>
+    <t>0 |0 |0 | 1</t>
+  </si>
+  <si>
+    <t>1 | 1e-5</t>
+  </si>
+  <si>
+    <t>Initial Cov.   A=O* B=CO*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inf</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,8 +159,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +193,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -302,34 +364,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -339,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,9 +436,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -413,13 +455,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,16 +617,114 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>822899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>296216</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FCDC28-52A3-F243-A41F-CFF875545512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16227999" y="36729"/>
+          <a:ext cx="4426317" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>822899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>296216</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9244145F-6553-9248-8065-AFC2B122F975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16227999" y="36729"/>
+          <a:ext cx="4426317" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>822899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>296216</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>74829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -475,8 +747,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8978900" y="393700"/>
-          <a:ext cx="4419600" cy="1066800"/>
+          <a:off x="10223737" y="36729"/>
+          <a:ext cx="4411418" cy="1073966"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -488,10 +760,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -529,7 +805,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -635,7 +911,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -777,18 +1053,854 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73268AAE-67AD-B14A-A7C2-1FAB70C074A9}">
-  <dimension ref="A2:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400A7C51-3D79-E841-A981-ED872740EB26}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="69">
+        <v>1</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="54">
+        <v>4.1050713608456101E-2</v>
+      </c>
+      <c r="D3" s="39">
+        <v>0.80895194271328796</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1.5698436759452601E-2</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0.18954334988670399</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0.18274491092569001</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.17981631910755699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="69">
+        <v>2</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0.216679247530111</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.147045908191825</v>
+      </c>
+      <c r="E4" s="14">
+        <v>7.7316989515735998E-2</v>
+      </c>
+      <c r="F4" s="55">
+        <v>3.1907575221344802</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1.67655547935654</v>
+      </c>
+      <c r="H4" s="56">
+        <v>3.3687365464157701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="69">
+        <v>3</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="55">
+        <v>85.938789571920196</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="56">
+        <v>68.125638485911395</v>
+      </c>
+      <c r="F5" s="55">
+        <v>4.9046548507347296</v>
+      </c>
+      <c r="G5" s="27">
+        <v>19997.535481971601</v>
+      </c>
+      <c r="H5" s="56">
+        <v>55.6120293462577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="69">
+        <v>4</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="55">
+        <v>5034.2879813865302</v>
+      </c>
+      <c r="D6" s="48">
+        <v>6.16677277393853E+25</v>
+      </c>
+      <c r="E6" s="56">
+        <v>1.5776812901850099</v>
+      </c>
+      <c r="F6" s="54">
+        <v>3.9783783394006102E-2</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0.152350595207915</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.23607281357681301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="69">
+        <v>5</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0.16250848261823</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1.4420326856633801</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.14152857426667401</v>
+      </c>
+      <c r="F7" s="54">
+        <v>0.219777352494684</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0.21306727135282699</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.210332969476246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="69">
+        <v>6</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="55">
+        <v>4.3479903470020398</v>
+      </c>
+      <c r="D8" s="27">
+        <v>493831.869667252</v>
+      </c>
+      <c r="E8" s="14">
+        <v>8.9063798433008698E-2</v>
+      </c>
+      <c r="F8" s="54">
+        <v>0.180247748607099</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0.17551534506316699</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.17348700521699001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="69">
+        <v>7</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="55">
+        <v>331.84199467365301</v>
+      </c>
+      <c r="D9" s="39">
+        <v>6.85316564944419E-2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.129777774975289</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0.157471165383364</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0.15632230564707</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.29330503266193297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="69">
+        <v>8</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="55">
+        <v>11852.5843457422</v>
+      </c>
+      <c r="D10" s="27">
+        <v>19.778905617224499</v>
+      </c>
+      <c r="E10" s="56">
+        <v>32.344427612854197</v>
+      </c>
+      <c r="F10" s="55">
+        <v>6.0144905520029202</v>
+      </c>
+      <c r="G10" s="27">
+        <v>8.7724192967570396</v>
+      </c>
+      <c r="H10" s="56">
+        <v>4.89248320594562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
+        <v>9</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="55">
+        <v>1.6144343992246899</v>
+      </c>
+      <c r="D11" s="27">
+        <v>2.7048889487719801</v>
+      </c>
+      <c r="E11" s="56">
+        <v>1.79379575183894</v>
+      </c>
+      <c r="F11" s="55">
+        <v>11.9540718691505</v>
+      </c>
+      <c r="G11" s="27">
+        <v>6.5095240763562696</v>
+      </c>
+      <c r="H11" s="56">
+        <v>12.573014612867601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="69">
+        <v>10</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="55">
+        <v>499267.71577080101</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="56">
+        <v>832108.73477454297</v>
+      </c>
+      <c r="F12" s="55">
+        <v>59479.782065339801</v>
+      </c>
+      <c r="G12" s="27">
+        <v>9026870717.1152592</v>
+      </c>
+      <c r="H12" s="56">
+        <v>680371.20724727795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="69">
+        <v>11</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="55">
+        <v>6922.8131179688999</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="56">
+        <v>40.915013254294401</v>
+      </c>
+      <c r="F13" s="55">
+        <v>2.97833756361385</v>
+      </c>
+      <c r="G13" s="27">
+        <v>11915.2204790181</v>
+      </c>
+      <c r="H13" s="56">
+        <v>33.191190226559002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="69">
+        <v>12</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="55">
+        <v>272257.953623251</v>
+      </c>
+      <c r="D14" s="48">
+        <v>6.6548754010770502E+25</v>
+      </c>
+      <c r="E14" s="56">
+        <v>2.9534996265890801</v>
+      </c>
+      <c r="F14" s="54">
+        <v>0.107319655665083</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0.35381987156490702</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.53336284668820899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="69">
+        <v>13</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="55">
+        <v>22.578212715227799</v>
+      </c>
+      <c r="D15" s="27">
+        <v>2501.1724085443698</v>
+      </c>
+      <c r="E15" s="56">
+        <v>373.08640858912901</v>
+      </c>
+      <c r="F15" s="55">
+        <v>251.72499973360101</v>
+      </c>
+      <c r="G15" s="27">
+        <v>443.09342764042299</v>
+      </c>
+      <c r="H15" s="56">
+        <v>1021.87557271945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="69">
+        <v>14</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="69">
+        <v>15</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="55">
+        <v>64.488274583101401</v>
+      </c>
+      <c r="D17" s="27">
+        <v>123058.24919256099</v>
+      </c>
+      <c r="E17" s="56">
+        <v>430.34987937221899</v>
+      </c>
+      <c r="F17" s="55">
+        <v>289.28409905290403</v>
+      </c>
+      <c r="G17" s="27">
+        <v>507.29132887523099</v>
+      </c>
+      <c r="H17" s="56">
+        <v>1169.62591594023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="69">
+        <v>16</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="55">
+        <v>5.8471357639754604</v>
+      </c>
+      <c r="D18" s="27">
+        <v>33.169769102480998</v>
+      </c>
+      <c r="E18" s="56">
+        <v>5.7507198534843198</v>
+      </c>
+      <c r="F18" s="59">
+        <v>0.107557183080299</v>
+      </c>
+      <c r="G18" s="43">
+        <v>0.13085095026143201</v>
+      </c>
+      <c r="H18" s="60">
+        <v>0.176543698117028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="69">
+        <v>17</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="55">
+        <v>3.87881782666713</v>
+      </c>
+      <c r="D19" s="27">
+        <v>9.0572442173397096</v>
+      </c>
+      <c r="E19" s="56">
+        <v>3.9223359631427099</v>
+      </c>
+      <c r="F19" s="59">
+        <v>3.04939022139427E-2</v>
+      </c>
+      <c r="G19" s="43">
+        <v>2.9792901227290398E-2</v>
+      </c>
+      <c r="H19" s="60">
+        <v>0.13951812720543399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="69">
+        <v>18</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="69">
+        <v>19</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="55">
+        <v>442172.61416019697</v>
+      </c>
+      <c r="D21" s="48">
+        <v>3.72243777473572E+26</v>
+      </c>
+      <c r="E21" s="56">
+        <v>13.774042201082001</v>
+      </c>
+      <c r="F21" s="59">
+        <v>0.379356598149105</v>
+      </c>
+      <c r="G21" s="21">
+        <v>2.2860854288059098</v>
+      </c>
+      <c r="H21" s="62">
+        <v>3.67986892451732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="69">
+        <v>20</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="55">
+        <v>5.9312541496756799</v>
+      </c>
+      <c r="D22" s="27">
+        <v>33.568027409315903</v>
+      </c>
+      <c r="E22" s="56">
+        <v>5.8116144374943302</v>
+      </c>
+      <c r="F22" s="59">
+        <v>0.106045776368469</v>
+      </c>
+      <c r="G22" s="43">
+        <v>8.9824171202281894E-2</v>
+      </c>
+      <c r="H22" s="60">
+        <v>0.118883105638646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="69">
+        <v>21</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="55">
+        <v>106.20495965622899</v>
+      </c>
+      <c r="D23" s="27">
+        <v>21234748.2499994</v>
+      </c>
+      <c r="E23" s="56">
+        <v>4.08494447364943</v>
+      </c>
+      <c r="F23" s="59">
+        <v>0.10111757114868</v>
+      </c>
+      <c r="G23" s="43">
+        <v>0.11786359358323099</v>
+      </c>
+      <c r="H23" s="60">
+        <v>0.14603934243029201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="69">
+        <v>23</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="55">
+        <v>65837.239946905203</v>
+      </c>
+      <c r="D24" s="27">
+        <v>79.702842744548093</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0.91471013938045498</v>
+      </c>
+      <c r="F24" s="59">
+        <v>5.4754486340178501E-2</v>
+      </c>
+      <c r="G24" s="43">
+        <v>6.0721486298663599E-2</v>
+      </c>
+      <c r="H24" s="60">
+        <v>5.5346133039195403E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="69">
+        <v>24</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="55">
+        <v>4.3600576931337702</v>
+      </c>
+      <c r="D25" s="27">
+        <v>10.186116498904299</v>
+      </c>
+      <c r="E25" s="56">
+        <v>4.4091175834424501</v>
+      </c>
+      <c r="F25" s="59">
+        <v>3.43774309474447E-2</v>
+      </c>
+      <c r="G25" s="43">
+        <v>3.2578253589869599E-2</v>
+      </c>
+      <c r="H25" s="60">
+        <v>0.15684920600372601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="69">
+        <v>25</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="55">
+        <v>5462.9821072908298</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="56">
+        <v>35467.294661163098</v>
+      </c>
+      <c r="F26" s="61">
+        <v>168.060452021028</v>
+      </c>
+      <c r="G26" s="21">
+        <v>54239965285.7369</v>
+      </c>
+      <c r="H26" s="62">
+        <v>2113.73150634285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="69">
+        <v>26</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="69">
+        <v>27</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="55">
+        <v>7332784.1252100402</v>
+      </c>
+      <c r="D28" s="48">
+        <v>3.4069495596441702E+26</v>
+      </c>
+      <c r="E28" s="56">
+        <v>37.777413745203702</v>
+      </c>
+      <c r="F28" s="61">
+        <v>1.84606059075896</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1.1219076283248399</v>
+      </c>
+      <c r="H28" s="62">
+        <v>1.78122697298148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="69">
+        <v>28</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="55">
+        <v>2.98041662278884</v>
+      </c>
+      <c r="D29" s="27">
+        <v>3266.0027064037899</v>
+      </c>
+      <c r="E29" s="56">
+        <v>1.02618605765052</v>
+      </c>
+      <c r="F29" s="59">
+        <v>0.67407163175713902</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1.00653519363304</v>
+      </c>
+      <c r="H29" s="62">
+        <v>2.2498491081045402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="69">
+        <v>29</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="71">
+        <v>30</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="57">
+        <v>2.87032679790198</v>
+      </c>
+      <c r="D31" s="36">
+        <v>3176.3641135867001</v>
+      </c>
+      <c r="E31" s="58">
+        <v>1.13795922107084</v>
+      </c>
+      <c r="F31" s="63">
+        <v>0.75142032956595595</v>
+      </c>
+      <c r="G31" s="73">
+        <v>1.1482972548257799</v>
+      </c>
+      <c r="H31" s="64">
+        <v>2.5770983095646298</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H31" xr:uid="{400A7C51-3D79-E841-A981-ED872740EB26}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H31">
+      <sortCondition ref="A1:A31"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B446565-0241-2149-B67C-E321FB736F47}">
+  <dimension ref="A1:V37"/>
+  <sheetViews>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,158 +1909,393 @@
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="7" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="37">
+        <v>1.7892010582356298E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.2252806587764299E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6.3007323655247596E-2</v>
+      </c>
+      <c r="K2" s="39">
+        <v>4.1050713608456101E-2</v>
+      </c>
+      <c r="L2" s="39">
+        <v>4.4454616473079099E-2</v>
+      </c>
+      <c r="M2" s="39">
+        <v>0.15344946064199599</v>
+      </c>
+      <c r="N2" s="39">
+        <v>0.37072597254503697</v>
+      </c>
+      <c r="O2" s="39">
+        <v>0.18954334988670399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>6.8254096686471102E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.52434032422592403</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5.7443321677938301E-2</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0.216679247530111</v>
+      </c>
+      <c r="L3" s="39">
+        <v>9.8676949444435003E-2</v>
+      </c>
+      <c r="M3" s="39">
+        <v>9.4054306544820303</v>
+      </c>
+      <c r="N3" s="39">
+        <v>6.8164962476978702E-2</v>
+      </c>
+      <c r="O3" s="27">
+        <v>3.1907575221344802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>122.117026920998</v>
+      </c>
+      <c r="I4" s="1">
+        <v>12.452895477416</v>
+      </c>
+      <c r="J4" s="1">
+        <v>123.246446317345</v>
+      </c>
+      <c r="K4" s="27">
+        <v>85.938789571920196</v>
+      </c>
+      <c r="L4" s="39">
+        <v>14.5306819391435</v>
+      </c>
+      <c r="M4" s="39">
+        <v>7.7244184845937897E-2</v>
+      </c>
+      <c r="N4" s="39">
+        <v>0.106038428214695</v>
+      </c>
+      <c r="O4" s="27">
+        <v>4.9046548507347296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <v>0.406783296794553</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2308.9788363489602</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12793.478324513801</v>
+      </c>
+      <c r="K5" s="27">
+        <v>5034.2879813865302</v>
+      </c>
+      <c r="L5" s="39">
+        <v>1.53045698120957E-2</v>
+      </c>
+      <c r="M5" s="39">
+        <v>4.7408269881390602E-2</v>
+      </c>
+      <c r="N5" s="39">
+        <v>5.6638510488531899E-2</v>
+      </c>
+      <c r="O5" s="39">
+        <v>3.9783783394006102E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <v>1.7932087747364302E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.5620561295976603E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.41397279881135102</v>
+      </c>
+      <c r="K6" s="39">
+        <v>0.16250848261823</v>
+      </c>
+      <c r="L6" s="39">
+        <v>4.4422139366060501E-2</v>
+      </c>
+      <c r="M6" s="39">
+        <v>0.125372229455882</v>
+      </c>
+      <c r="N6" s="39">
+        <v>0.489537688662111</v>
+      </c>
+      <c r="O6" s="39">
+        <v>0.219777352494684</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.9096763729350999E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.9948319860675303</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7.0300422912092397</v>
+      </c>
+      <c r="K7" s="27">
+        <v>4.3479903470020398</v>
+      </c>
+      <c r="L7" s="39">
+        <v>3.1416566582312802E-2</v>
+      </c>
+      <c r="M7" s="39">
+        <v>0.13909755811454</v>
+      </c>
+      <c r="N7" s="39">
+        <v>0.37022912112444301</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0.180247748607099</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7">
+        <v>423</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="1">
+        <v>7.1024548466965598E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20.301768558288199</v>
+      </c>
+      <c r="J8" s="1">
+        <v>975.15319091420497</v>
+      </c>
+      <c r="K8" s="27">
+        <v>331.84199467365301</v>
+      </c>
+      <c r="L8" s="39">
+        <v>0.13830827495374201</v>
+      </c>
+      <c r="M8" s="39">
+        <v>0.24559222952055901</v>
+      </c>
+      <c r="N8" s="39">
+        <v>8.85129916757912E-2</v>
+      </c>
+      <c r="O8" s="39">
+        <v>0.157471165383364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>740.83187433130001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10582.334638320801</v>
+      </c>
+      <c r="J9" s="1">
+        <v>24234.586524574701</v>
+      </c>
+      <c r="K9" s="27">
+        <v>11852.5843457422</v>
+      </c>
+      <c r="L9" s="39">
+        <v>17.8232082365795</v>
+      </c>
+      <c r="M9" s="39">
+        <v>0.15278977644486699</v>
+      </c>
+      <c r="N9" s="39">
+        <v>6.7473642984414606E-2</v>
+      </c>
+      <c r="O9" s="27">
+        <v>6.0144905520029202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -956,100 +2303,214 @@
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="1">
+        <v>0.45352034838354999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.7420208010648499</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.6477620482256601</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1.6144343992246899</v>
+      </c>
+      <c r="L10" s="39">
+        <v>0.82906552413567203</v>
+      </c>
+      <c r="M10" s="39">
+        <v>34.5036406060389</v>
+      </c>
+      <c r="N10" s="39">
+        <v>0.52950947727706799</v>
+      </c>
+      <c r="O10" s="27">
+        <v>11.9540718691505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <v>1495725.7376110801</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2020.3365660491399</v>
+      </c>
+      <c r="J11" s="1">
+        <v>57.0731352739313</v>
+      </c>
+      <c r="K11" s="27">
+        <v>499267.71577080101</v>
+      </c>
+      <c r="L11" s="39">
+        <v>178439.24449705999</v>
+      </c>
+      <c r="M11" s="39">
+        <v>5.1387433938738798E-2</v>
+      </c>
+      <c r="N11" s="39">
+        <v>5.03115252976215E-2</v>
+      </c>
+      <c r="O11" s="27">
+        <v>59479.782065339801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>72.7454032278944</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11.308004782208499</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20684.3859458966</v>
+      </c>
+      <c r="K12" s="27">
+        <v>6922.8131179688999</v>
+      </c>
+      <c r="L12" s="39">
+        <v>8.6420537903083705</v>
+      </c>
+      <c r="M12" s="39">
+        <v>5.1079055622617199E-2</v>
+      </c>
+      <c r="N12" s="39">
+        <v>0.241879844910561</v>
+      </c>
+      <c r="O12" s="27">
+        <v>2.97833756361385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="1">
+        <v>0.93274390553110798</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2491.7354228346599</v>
+      </c>
+      <c r="J13" s="1">
+        <v>814281.19270301401</v>
+      </c>
+      <c r="K13" s="27">
+        <v>272257.953623251</v>
+      </c>
+      <c r="L13" s="39">
+        <v>6.8222564131921404E-2</v>
+      </c>
+      <c r="M13" s="39">
+        <v>4.6104695816118799E-2</v>
+      </c>
+      <c r="N13" s="39">
+        <v>0.20763170704720799</v>
+      </c>
+      <c r="O13" s="39">
+        <v>0.107319655665083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="1">
+        <v>65.326349185466299</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2.2794805471310999</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.12880841308608501</v>
+      </c>
+      <c r="K14" s="27">
+        <v>22.578212715227799</v>
+      </c>
+      <c r="L14" s="39">
+        <v>754.95277293030495</v>
+      </c>
+      <c r="M14" s="39">
+        <v>0.15228361414782199</v>
+      </c>
+      <c r="N14" s="39">
+        <v>6.9942656349790105E-2</v>
+      </c>
+      <c r="O14" s="27">
+        <v>251.72499973360101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1057,239 +2518,523 @@
         <v>6</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="H15" s="1">
+        <v>9722217.5628004596</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2020.6288612966</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="39">
+        <v>1159855.35755907</v>
+      </c>
+      <c r="M15" s="39">
+        <v>5.1398464288452697E-2</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35">
+        <v>74.684042488076003</v>
+      </c>
+      <c r="I16" s="35">
+        <v>112.317737789403</v>
+      </c>
+      <c r="J16" s="35">
+        <v>6.4630434718250704</v>
+      </c>
+      <c r="K16" s="36">
+        <v>64.488274583101401</v>
+      </c>
+      <c r="L16" s="40">
+        <v>862.82867886234897</v>
+      </c>
+      <c r="M16" s="40">
+        <v>4.6232993699975404</v>
+      </c>
+      <c r="N16" s="40">
+        <v>0.40031892636733102</v>
+      </c>
+      <c r="O16" s="36">
+        <v>289.28409905290403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32">
+        <v>0.14304309997963799</v>
+      </c>
+      <c r="I17" s="32">
+        <v>0.36509791793975399</v>
+      </c>
+      <c r="J17" s="32">
+        <v>17.033266274007001</v>
+      </c>
+      <c r="K17" s="38">
+        <v>5.8471357639754604</v>
+      </c>
+      <c r="L17" s="41">
+        <v>2.8675150028245E-2</v>
+      </c>
+      <c r="M17" s="41">
+        <v>6.2653154289438698E-2</v>
+      </c>
+      <c r="N17" s="41">
+        <v>0.23134324492321501</v>
+      </c>
+      <c r="O17" s="42">
+        <v>0.107557183080299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="1">
+        <v>5.0601947037546599E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4.7227157974926201E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>11.538624374988901</v>
+      </c>
+      <c r="K18" s="27">
+        <v>3.87881782666713</v>
+      </c>
+      <c r="L18" s="39">
+        <v>4.4947681611593397E-2</v>
+      </c>
+      <c r="M18" s="39">
+        <v>4.8549935230994198E-4</v>
+      </c>
+      <c r="N18" s="39">
+        <v>4.6048525677924598E-2</v>
+      </c>
+      <c r="O18" s="43">
+        <v>3.04939022139427E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="1">
+        <v>155.667001542566</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="39">
+        <v>18.531637320887</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="1">
+        <v>7.5554870221120698</v>
+      </c>
+      <c r="I20" s="1">
+        <v>13937.6463904143</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1312572.64060315</v>
+      </c>
+      <c r="K20" s="27">
+        <v>442172.61416019697</v>
+      </c>
+      <c r="L20" s="39">
+        <v>0.82610717670983103</v>
+      </c>
+      <c r="M20" s="39">
+        <v>4.6248037498359498E-2</v>
+      </c>
+      <c r="N20" s="39">
+        <v>0.26571458023912398</v>
+      </c>
+      <c r="O20" s="43">
+        <v>0.379356598149105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="1">
+        <v>8.7595124216890592E-3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.716899186732876</v>
+      </c>
+      <c r="J21" s="1">
+        <v>17.0681037498724</v>
+      </c>
+      <c r="K21" s="27">
+        <v>5.9312541496756799</v>
+      </c>
+      <c r="L21" s="39">
+        <v>4.2853383466434497E-2</v>
+      </c>
+      <c r="M21" s="39">
+        <v>0.12859969128662099</v>
+      </c>
+      <c r="N21" s="39">
+        <v>0.14668425435235299</v>
+      </c>
+      <c r="O21" s="43">
+        <v>0.106045776368469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.13483333618680499</v>
+      </c>
+      <c r="I22" s="2">
+        <v>15.5226596276819</v>
+      </c>
+      <c r="J22" s="2">
+        <v>302.95738600482099</v>
+      </c>
+      <c r="K22" s="27">
+        <v>106.20495965622899</v>
+      </c>
+      <c r="L22" s="39">
+        <v>2.0260457017346301E-2</v>
+      </c>
+      <c r="M22" s="39">
+        <v>4.4968033930805701E-2</v>
+      </c>
+      <c r="N22" s="39">
+        <v>0.23812422249788801</v>
+      </c>
+      <c r="O22" s="43">
+        <v>0.10111757114868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <v>0.78558297441643499</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5152.2957376864897</v>
+      </c>
+      <c r="J23" s="1">
+        <v>192358.638520054</v>
+      </c>
+      <c r="K23" s="27">
+        <v>65837.239946905203</v>
+      </c>
+      <c r="L23" s="39">
+        <v>4.5426310051807098E-2</v>
+      </c>
+      <c r="M23" s="39">
+        <v>5.4698359085187699E-3</v>
+      </c>
+      <c r="N23" s="39">
+        <v>0.113367313060209</v>
+      </c>
+      <c r="O23" s="43">
+        <v>5.4754486340178501E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>5.0582174747780102E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.72288958671368E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>12.982362008786399</v>
+      </c>
+      <c r="K24" s="27">
+        <v>4.3600576931337702</v>
+      </c>
+      <c r="L24" s="39">
+        <v>4.5307667766028098E-2</v>
+      </c>
+      <c r="M24" s="39">
+        <v>4.8200172454679297E-4</v>
+      </c>
+      <c r="N24" s="39">
+        <v>5.7342623351759298E-2</v>
+      </c>
+      <c r="O24" s="43">
+        <v>3.43774309474447E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="1">
+        <v>4220.5841537479901</v>
+      </c>
+      <c r="I25" s="1">
+        <v>12140.023601106799</v>
+      </c>
+      <c r="J25" s="1">
+        <v>28.338567017649702</v>
+      </c>
+      <c r="K25" s="27">
+        <v>5462.9821072908298</v>
+      </c>
+      <c r="L25" s="39">
+        <v>503.474449033947</v>
+      </c>
+      <c r="M25" s="39">
+        <v>0.449907431640374</v>
+      </c>
+      <c r="N25" s="39">
+        <v>0.256999597496683</v>
+      </c>
+      <c r="O25" s="21">
+        <v>168.060452021028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="1">
+        <v>153.85042364727701</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="39">
+        <v>18.314899406323701</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="1">
+        <v>3.5288913384929499</v>
+      </c>
+      <c r="I27" s="1">
+        <v>12756.3877039947</v>
+      </c>
+      <c r="J27" s="1">
+        <v>21985592.459034801</v>
+      </c>
+      <c r="K27" s="27">
+        <v>7332784.1252100402</v>
+      </c>
+      <c r="L27" s="39">
+        <v>0.367273307431839</v>
+      </c>
+      <c r="M27" s="39">
+        <v>4.59212802907807E-2</v>
+      </c>
+      <c r="N27" s="39">
+        <v>5.1249871845542803</v>
+      </c>
+      <c r="O27" s="21">
+        <v>1.84606059075896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1298,174 +3043,2913 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="1">
+        <v>0.17798717997136701</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8.7080168636205197</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5.5245824774651099E-2</v>
+      </c>
+      <c r="K28" s="27">
+        <v>2.98041662278884</v>
+      </c>
+      <c r="L28" s="39">
+        <v>1.5755383294573</v>
+      </c>
+      <c r="M28" s="39">
+        <v>0.399688646754425</v>
+      </c>
+      <c r="N28" s="39">
+        <v>4.6987919059689E-2</v>
+      </c>
+      <c r="O28" s="43">
+        <v>0.67407163175713902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="1">
+        <v>2520.6235952429201</v>
+      </c>
+      <c r="I29" s="1">
+        <v>13651.413750519599</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="39">
+        <v>300.66969221735502</v>
+      </c>
+      <c r="M29" s="39">
+        <v>0.51064110901521298</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>0.19854486419654499</v>
+      </c>
+      <c r="I30" s="1">
+        <v>8.3561874684182502</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5.6248061091142103E-2</v>
+      </c>
+      <c r="K30" s="27">
+        <v>2.87032679790198</v>
+      </c>
+      <c r="L30" s="39">
+        <v>1.82057510551463</v>
+      </c>
+      <c r="M30" s="39">
+        <v>0.38654905629471498</v>
+      </c>
+      <c r="N30" s="39">
+        <v>4.7136826888521E-2</v>
+      </c>
+      <c r="O30" s="43">
+        <v>0.75142032956595595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="20"/>
+    </row>
+    <row r="35" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="22"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C37" s="24"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
+  <mergeCells count="5">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682B500F-7CBF-714C-9E76-B4F982F83B36}">
+  <dimension ref="A1:V37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="44">
+        <v>3.2580585035229301E-2</v>
+      </c>
+      <c r="I2" s="45">
+        <v>0.474268170979535</v>
+      </c>
+      <c r="J2" s="45">
+        <v>1.9200070721250999</v>
+      </c>
+      <c r="K2" s="39">
+        <v>0.80895194271328796</v>
+      </c>
+      <c r="L2" s="39">
+        <v>2.54086369700866E-2</v>
+      </c>
+      <c r="M2" s="39">
+        <v>0.151934613708506</v>
+      </c>
+      <c r="N2" s="39">
+        <v>0.370891482098478</v>
+      </c>
+      <c r="O2" s="39">
+        <v>0.18274491092569001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="45">
+        <v>7.6035118715177596E-2</v>
+      </c>
+      <c r="I3" s="45">
+        <v>0.28270049810576398</v>
+      </c>
+      <c r="J3" s="45">
+        <v>8.2402107754534507E-2</v>
+      </c>
+      <c r="K3" s="39">
+        <v>0.147045908191825</v>
+      </c>
+      <c r="L3" s="39">
+        <v>0.10752399741794499</v>
+      </c>
+      <c r="M3" s="39">
+        <v>4.8538597086829798</v>
+      </c>
+      <c r="N3" s="39">
+        <v>6.8282731968709598E-2</v>
+      </c>
+      <c r="O3" s="27">
+        <v>1.67655547935654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="45">
+        <v>0.103801721922331</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="39">
+        <v>59992.424375372997</v>
+      </c>
+      <c r="M4" s="39">
+        <v>7.6032290322639404E-2</v>
+      </c>
+      <c r="N4" s="39">
+        <v>0.106038251655115</v>
+      </c>
+      <c r="O4" s="27">
+        <v>19997.535481971601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="45">
+        <v>5175.5495839852201</v>
+      </c>
+      <c r="I5" s="44">
+        <v>1.8500318321815599E+26</v>
+      </c>
+      <c r="J5" s="45">
+        <v>102.22090149881799</v>
+      </c>
+      <c r="K5" s="48">
+        <v>6.16677277393853E+25</v>
+      </c>
+      <c r="L5" s="39">
+        <v>0.35254610338847497</v>
+      </c>
+      <c r="M5" s="39">
+        <v>4.7428014544183397E-2</v>
+      </c>
+      <c r="N5" s="39">
+        <v>5.7077667691088699E-2</v>
+      </c>
+      <c r="O5" s="39">
+        <v>0.152350595207915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="45">
+        <v>3.2604966966175299E-2</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0.414381430019862</v>
+      </c>
+      <c r="J6" s="45">
+        <v>3.87911166000411</v>
+      </c>
+      <c r="K6" s="39">
+        <v>1.4420326856633801</v>
+      </c>
+      <c r="L6" s="39">
+        <v>2.5397315187948001E-2</v>
+      </c>
+      <c r="M6" s="39">
+        <v>0.124207867845483</v>
+      </c>
+      <c r="N6" s="39">
+        <v>0.48959663102504902</v>
+      </c>
+      <c r="O6" s="39">
+        <v>0.21306727135282699</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="39">
+        <v>2.3025895285503601E-2</v>
+      </c>
+      <c r="I7" s="39">
+        <v>1.7059631876666701</v>
+      </c>
+      <c r="J7" s="39">
+        <v>1481493.8800126701</v>
+      </c>
+      <c r="K7" s="27">
+        <v>493831.869667252</v>
+      </c>
+      <c r="L7" s="39">
+        <v>1.7957773224398701E-2</v>
+      </c>
+      <c r="M7" s="39">
+        <v>0.13826439469600299</v>
+      </c>
+      <c r="N7" s="39">
+        <v>0.37032386726910099</v>
+      </c>
+      <c r="O7" s="39">
+        <v>0.17551534506316699</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7">
+        <v>423</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="45">
+        <v>2.64370143581697E-2</v>
+      </c>
+      <c r="I8" s="45">
+        <v>9.6172243489617504E-2</v>
+      </c>
+      <c r="J8" s="45">
+        <v>8.2985711635538598E-2</v>
+      </c>
+      <c r="K8" s="39">
+        <v>6.85316564944419E-2</v>
+      </c>
+      <c r="L8" s="39">
+        <v>0.215681116469609</v>
+      </c>
+      <c r="M8" s="39">
+        <v>0.16464398018439499</v>
+      </c>
+      <c r="N8" s="39">
+        <v>8.8641820287207795E-2</v>
+      </c>
+      <c r="O8" s="39">
+        <v>0.15632230564707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="45">
+        <v>17.8603977597305</v>
+      </c>
+      <c r="I9" s="45">
+        <v>12.1003678732769</v>
+      </c>
+      <c r="J9" s="45">
+        <v>29.375951218666199</v>
+      </c>
+      <c r="K9" s="27">
+        <v>19.778905617224499</v>
+      </c>
+      <c r="L9" s="39">
+        <v>26.1389474680395</v>
+      </c>
+      <c r="M9" s="39">
+        <v>0.11073556461062301</v>
+      </c>
+      <c r="N9" s="39">
+        <v>6.7574857620952902E-2</v>
+      </c>
+      <c r="O9" s="27">
+        <v>8.7724192967570396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="45">
+        <v>0.64848456268884302</v>
+      </c>
+      <c r="I10" s="45">
+        <v>0.91687664945498903</v>
+      </c>
+      <c r="J10" s="45">
+        <v>6.5493056341721099</v>
+      </c>
+      <c r="K10" s="27">
+        <v>2.7048889487719801</v>
+      </c>
+      <c r="L10" s="39">
+        <v>1.1435939049524499</v>
+      </c>
+      <c r="M10" s="39">
+        <v>17.8548001258638</v>
+      </c>
+      <c r="N10" s="39">
+        <v>0.53017819825254098</v>
+      </c>
+      <c r="O10" s="27">
+        <v>6.5095240763562696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="45">
+        <v>2416823.3141183401</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="39">
+        <v>349717.64386866899</v>
+      </c>
+      <c r="M11" s="39">
+        <v>27080262403.911301</v>
+      </c>
+      <c r="N11" s="39">
+        <v>29.790576532046401</v>
+      </c>
+      <c r="O11" s="27">
+        <v>9026870717.1152592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="45">
+        <v>1.3774628170120999</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="39">
+        <v>35745.370093998601</v>
+      </c>
+      <c r="M12" s="39">
+        <v>4.9469086169633997E-2</v>
+      </c>
+      <c r="N12" s="39">
+        <v>0.24187396954074999</v>
+      </c>
+      <c r="O12" s="27">
+        <v>11915.2204790181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="45">
+        <v>11238.9917715302</v>
+      </c>
+      <c r="I13" s="44">
+        <v>1.9964626203231102E+26</v>
+      </c>
+      <c r="J13" s="45">
+        <v>6507.9238612293702</v>
+      </c>
+      <c r="K13" s="48">
+        <v>6.6548754010770502E+25</v>
+      </c>
+      <c r="L13" s="39">
+        <v>0.81745213386035098</v>
+      </c>
+      <c r="M13" s="39">
+        <v>4.5678163617517198E-2</v>
+      </c>
+      <c r="N13" s="39">
+        <v>0.19832931721685301</v>
+      </c>
+      <c r="O13" s="39">
+        <v>0.35381987156490702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="45">
+        <v>10.9759315834352</v>
+      </c>
+      <c r="I14" s="45">
+        <v>2080.13699560844</v>
+      </c>
+      <c r="J14" s="45">
+        <v>5412.4042984412299</v>
+      </c>
+      <c r="K14" s="27">
+        <v>2501.1724085443698</v>
+      </c>
+      <c r="L14" s="39">
+        <v>1329.0999960717299</v>
+      </c>
+      <c r="M14" s="39">
+        <v>0.110164777899126</v>
+      </c>
+      <c r="N14" s="39">
+        <v>7.01220716366667E-2</v>
+      </c>
+      <c r="O14" s="27">
+        <v>443.09342764042299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="39">
+        <v>2273164.9534737798</v>
+      </c>
+      <c r="M15" s="39">
+        <v>27084180195.097698</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="46">
+        <v>12.536982435238899</v>
+      </c>
+      <c r="I16" s="46">
+        <v>102774.352306282</v>
+      </c>
+      <c r="J16" s="46">
+        <v>266387.85828896798</v>
+      </c>
+      <c r="K16" s="36">
+        <v>123058.24919256099</v>
+      </c>
+      <c r="L16" s="40">
+        <v>1518.99700131746</v>
+      </c>
+      <c r="M16" s="40">
+        <v>2.47593177039733</v>
+      </c>
+      <c r="N16" s="40">
+        <v>0.40105353783098702</v>
+      </c>
+      <c r="O16" s="36">
+        <v>507.29132887523099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="47">
+        <v>0.34068419650188198</v>
+      </c>
+      <c r="I17" s="47">
+        <v>1.4812109622407199</v>
+      </c>
+      <c r="J17" s="47">
+        <v>97.687412148700403</v>
+      </c>
+      <c r="K17" s="38">
+        <v>33.169769102480998</v>
+      </c>
+      <c r="L17" s="41">
+        <v>0.11182759878561099</v>
+      </c>
+      <c r="M17" s="41">
+        <v>5.2690166979275199E-2</v>
+      </c>
+      <c r="N17" s="41">
+        <v>0.22803508501941</v>
+      </c>
+      <c r="O17" s="42">
+        <v>0.13085095026143201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="45">
+        <v>5.1530502636780801E-2</v>
+      </c>
+      <c r="I18" s="45">
+        <v>4.7126245994033901E-2</v>
+      </c>
+      <c r="J18" s="45">
+        <v>27.0730759033883</v>
+      </c>
+      <c r="K18" s="27">
+        <v>9.0572442173397096</v>
+      </c>
+      <c r="L18" s="39">
+        <v>4.6427164366669701E-2</v>
+      </c>
+      <c r="M18" s="39">
+        <v>2.2651187069680698E-2</v>
+      </c>
+      <c r="N18" s="39">
+        <v>2.0300352245520601E-2</v>
+      </c>
+      <c r="O18" s="43">
+        <v>2.9792901227290398E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="39">
+        <v>76469.589723601806</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="45">
+        <v>87559.402115447607</v>
+      </c>
+      <c r="I20" s="44">
+        <v>1.1167313324207099E+27</v>
+      </c>
+      <c r="J20" s="45">
+        <v>10490.429104164999</v>
+      </c>
+      <c r="K20" s="48">
+        <v>3.72243777473572E+26</v>
+      </c>
+      <c r="L20" s="39">
+        <v>6.6711832865280796</v>
+      </c>
+      <c r="M20" s="39">
+        <v>3.8885863980707903E-2</v>
+      </c>
+      <c r="N20" s="39">
+        <v>0.148187135908951</v>
+      </c>
+      <c r="O20" s="21">
+        <v>2.2860854288059098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="45">
+        <v>5.25046100872772E-2</v>
+      </c>
+      <c r="I21" s="45">
+        <v>2.94695054718578</v>
+      </c>
+      <c r="J21" s="45">
+        <v>97.704627070674803</v>
+      </c>
+      <c r="K21" s="27">
+        <v>33.568027409315903</v>
+      </c>
+      <c r="L21" s="39">
+        <v>1.7951368763658399E-2</v>
+      </c>
+      <c r="M21" s="39">
+        <v>0.110099788605878</v>
+      </c>
+      <c r="N21" s="39">
+        <v>0.141421356237309</v>
+      </c>
+      <c r="O21" s="43">
+        <v>8.9824171202281894E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="39">
+        <v>0.24072892075077701</v>
+      </c>
+      <c r="I22" s="39">
+        <v>4.6505581560737301</v>
+      </c>
+      <c r="J22" s="39">
+        <v>63704239.858711101</v>
+      </c>
+      <c r="K22" s="27">
+        <v>21234748.2499994</v>
+      </c>
+      <c r="L22" s="39">
+        <v>7.9011710806180302E-2</v>
+      </c>
+      <c r="M22" s="39">
+        <v>3.8054111548086203E-2</v>
+      </c>
+      <c r="N22" s="39">
+        <v>0.236524958395429</v>
+      </c>
+      <c r="O22" s="43">
+        <v>0.11786359358323099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="45">
+        <v>5.40847714651694E-2</v>
+      </c>
+      <c r="I23" s="45">
+        <v>5.8911263523496</v>
+      </c>
+      <c r="J23" s="45">
+        <v>233.16331710982899</v>
+      </c>
+      <c r="K23" s="27">
+        <v>79.702842744548093</v>
+      </c>
+      <c r="L23" s="39">
+        <v>4.6624474692719402E-2</v>
+      </c>
+      <c r="M23" s="39">
+        <v>2.2147537299193099E-2</v>
+      </c>
+      <c r="N23" s="39">
+        <v>0.113392446904078</v>
+      </c>
+      <c r="O23" s="43">
+        <v>6.0721486298663599E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="45">
+        <v>5.1783888101022198E-2</v>
+      </c>
+      <c r="I24" s="45">
+        <v>4.7127960443676099E-2</v>
+      </c>
+      <c r="J24" s="45">
+        <v>30.459437648168301</v>
+      </c>
+      <c r="K24" s="27">
+        <v>10.186116498904299</v>
+      </c>
+      <c r="L24" s="39">
+        <v>4.7663554673509197E-2</v>
+      </c>
+      <c r="M24" s="39">
+        <v>2.26546571478147E-2</v>
+      </c>
+      <c r="N24" s="39">
+        <v>2.7416548948284901E-2</v>
+      </c>
+      <c r="O24" s="43">
+        <v>3.2578253589869599E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="45">
+        <v>1208411.4796396899</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="39">
+        <v>986.78662648888405</v>
+      </c>
+      <c r="M25" s="39">
+        <v>162719894855.53799</v>
+      </c>
+      <c r="N25" s="39">
+        <v>14.8851556145227</v>
+      </c>
+      <c r="O25" s="21">
+        <v>54239965285.7369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="39">
+        <v>75577.4845149311</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="45">
+        <v>41127.529356897299</v>
+      </c>
+      <c r="I27" s="44">
+        <v>1.02208486789325E+27</v>
+      </c>
+      <c r="J27" s="45">
+        <v>175715.79272443199</v>
+      </c>
+      <c r="K27" s="48">
+        <v>3.4069495596441702E+26</v>
+      </c>
+      <c r="L27" s="39">
+        <v>3.1122912616676102</v>
+      </c>
+      <c r="M27" s="39">
+        <v>3.9539463847176597E-2</v>
+      </c>
+      <c r="N27" s="39">
+        <v>0.21389215945974099</v>
+      </c>
+      <c r="O27" s="21">
+        <v>1.1219076283248399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="45">
+        <v>5.6269449190098998E-2</v>
+      </c>
+      <c r="I28" s="45">
+        <v>7951.8913809422202</v>
+      </c>
+      <c r="J28" s="45">
+        <v>1846.0604688199701</v>
+      </c>
+      <c r="K28" s="27">
+        <v>3266.0027064037899</v>
+      </c>
+      <c r="L28" s="39">
+        <v>2.7404986693962701</v>
+      </c>
+      <c r="M28" s="39">
+        <v>0.232050403904071</v>
+      </c>
+      <c r="N28" s="39">
+        <v>4.7056507598774097E-2</v>
+      </c>
+      <c r="O28" s="21">
+        <v>1.00653519363304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="39">
+        <v>589.31620384301004</v>
+      </c>
+      <c r="M29" s="39">
+        <v>182977875656.73999</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="45">
+        <v>5.7441665388291999E-2</v>
+      </c>
+      <c r="I30" s="45">
+        <v>7628.9170001272096</v>
+      </c>
+      <c r="J30" s="45">
+        <v>1900.11789896749</v>
+      </c>
+      <c r="K30" s="27">
+        <v>3176.3641135867001</v>
+      </c>
+      <c r="L30" s="39">
+        <v>3.1722524232833802</v>
+      </c>
+      <c r="M30" s="39">
+        <v>0.22543169133956401</v>
+      </c>
+      <c r="N30" s="39">
+        <v>4.7207649854414002E-2</v>
+      </c>
+      <c r="O30" s="21">
+        <v>1.1482972548257799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="20"/>
+    </row>
+    <row r="35" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C37" s="24"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73268AAE-67AD-B14A-A7C2-1FAB70C074A9}">
+  <dimension ref="A1:V37"/>
+  <sheetViews>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="37">
+        <v>7.1313075965427701E-5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8.3282781554838703E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3.8695719046908598E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.5698436759452601E-2</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.7526294751231901E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.15193187089184201</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.36999079167959797</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.17981631910755699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>2.19381646465895E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.16496004079257101</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4.5052763108047497E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>7.7316989515735998E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>9.44382535406144E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>9.94458303568525</v>
+      </c>
+      <c r="N3" s="2">
+        <v>6.7188350021446394E-2</v>
+      </c>
+      <c r="O3" s="27">
+        <v>3.3687365464157701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>202.48562739886901</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.78715157243244</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.104136486432703</v>
+      </c>
+      <c r="K4" s="27">
+        <v>68.125638485911395</v>
+      </c>
+      <c r="L4" s="2">
+        <v>166.65214722315901</v>
+      </c>
+      <c r="M4" s="2">
+        <v>7.7902386236445201E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.10603842937720601</v>
+      </c>
+      <c r="O4" s="27">
+        <v>55.6120293462577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>0.66777270413677303</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.9902702504149099</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7.5000916003342397E-2</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1.5776812901850099</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.60169711125956005</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4.9443659736708001E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.70776697341722E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.23607281357681301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>4.4060845367147402E-4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.8355042707290898E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.38579007163905998</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.14152857426667401</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.7520341879267098E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.12421194884230401</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.48926661770716801</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.210332969476246</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.5789147045468599E-4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.2390906784829698E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.23464259704374099</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8.9063798433008698E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1.23882254095892E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.138267918726828</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.36980487151455299</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.17348700521699001</v>
+      </c>
+      <c r="R7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7">
+        <v>423</v>
+      </c>
+      <c r="V7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>0.24523726367387899</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.111789852138537</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3.2306209113451098E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.129777774975289</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.53725763316073405</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.25416116137276401</v>
+      </c>
+      <c r="N8" s="2">
+        <v>8.8496303452301597E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.29330503266193297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>92.273222342448094</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.7115823689453897</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4.8478127169383198E-2</v>
+      </c>
+      <c r="K9" s="27">
+        <v>32.344427612854197</v>
+      </c>
+      <c r="L9" s="2">
+        <v>14.4533104231704</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.157479981409825</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6.6659213256581501E-2</v>
+      </c>
+      <c r="O9" s="27">
+        <v>4.89248320594562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>2.0717752234240998</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.51864855918308606</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.7909634729096502</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1.79379575183894</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.71145870910021902</v>
+      </c>
+      <c r="M10" s="2">
+        <v>36.476342140079602</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.53124298942292802</v>
+      </c>
+      <c r="O10" s="27">
+        <v>12.573014612867601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>2479758.2699335902</v>
+      </c>
+      <c r="I11" s="1">
+        <v>16540.9089413535</v>
+      </c>
+      <c r="J11" s="1">
+        <v>27.02544868335</v>
+      </c>
+      <c r="K11" s="27">
+        <v>832108.73477454297</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2041013.6640812401</v>
+      </c>
+      <c r="M11" s="2">
+        <v>96.585672866636799</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3.3719877269366498</v>
+      </c>
+      <c r="O11" s="27">
+        <v>680371.20724727795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>120.63155989722701</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.61679758468197</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.49668228097355299</v>
+      </c>
+      <c r="K12" s="27">
+        <v>40.915013254294401</v>
+      </c>
+      <c r="L12" s="2">
+        <v>99.280837895104796</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5.1863650905646499E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.24086913366656099</v>
+      </c>
+      <c r="O12" s="27">
+        <v>33.191190226559002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>1.5023066754823</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4.30892965948102</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.0492625448039199</v>
+      </c>
+      <c r="K13" s="27">
+        <v>2.9534996265890801</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1.3540096042629399</v>
+      </c>
+      <c r="M13" s="2">
+        <v>4.7874834237618902E-2</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.19820410156406601</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.53336284668820899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>1119.02381555891</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.20332129661801601</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.2088911852591502E-2</v>
+      </c>
+      <c r="K14" s="27">
+        <v>373.08640858912901</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3065.3949117018601</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.161873440590693</v>
+      </c>
+      <c r="N14" s="2">
+        <v>6.9933015906614396E-2</v>
+      </c>
+      <c r="O14" s="27">
+        <v>1021.87557271945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>16118429.022896901</v>
+      </c>
+      <c r="I15" s="1">
+        <v>16543.3019758636</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2">
+        <v>13266589.084860099</v>
+      </c>
+      <c r="M15" s="2">
+        <v>96.599646262840494</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35">
+        <v>1278.90995004463</v>
+      </c>
+      <c r="I16" s="35">
+        <v>9.1597582250744995</v>
+      </c>
+      <c r="J16" s="35">
+        <v>2.9799298469532198</v>
+      </c>
+      <c r="K16" s="36">
+        <v>430.34987937221899</v>
+      </c>
+      <c r="L16" s="16">
+        <v>3503.3340272904302</v>
+      </c>
+      <c r="M16" s="16">
+        <v>5.1439918308660699</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0.39972869939132299</v>
+      </c>
+      <c r="O16" s="36">
+        <v>1169.62591594023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32">
+        <v>0.24843900978150299</v>
+      </c>
+      <c r="I17" s="32">
+        <v>0.37273840687815701</v>
+      </c>
+      <c r="J17" s="32">
+        <v>16.630982143793201</v>
+      </c>
+      <c r="K17" s="38">
+        <v>5.7507198534843198</v>
+      </c>
+      <c r="L17" s="31">
+        <v>0.185003296689914</v>
+      </c>
+      <c r="M17" s="31">
+        <v>5.27058898723766E-2</v>
+      </c>
+      <c r="N17" s="31">
+        <v>0.29192190778879301</v>
+      </c>
+      <c r="O17" s="33">
+        <v>0.176543698117028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>7.8456479059866496E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4.7134990696949097E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>11.6414164196713</v>
+      </c>
+      <c r="K18" s="27">
+        <v>3.9223359631427099</v>
+      </c>
+      <c r="L18" s="2">
+        <v>4.4920535151125901E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3.5338226652801702E-3</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.37010002379989798</v>
+      </c>
+      <c r="O18" s="20">
+        <v>0.13951812720543399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>258.10915456539999</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="2">
+        <v>212.43386801922099</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>12.0074744346584</v>
+      </c>
+      <c r="I20" s="1">
+        <v>24.286383693511699</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5.02826847507602</v>
+      </c>
+      <c r="K20" s="27">
+        <v>13.774042201082001</v>
+      </c>
+      <c r="L20" s="2">
+        <v>10.825277645107301</v>
+      </c>
+      <c r="M20" s="2">
+        <v>6.6310304166320694E-2</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.148018824278281</v>
+      </c>
+      <c r="O20" s="21">
+        <v>3.67986892451732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>1.9002673536637298E-2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.74915676122600605</v>
+      </c>
+      <c r="J21" s="1">
+        <v>16.666683877720299</v>
+      </c>
+      <c r="K21" s="27">
+        <v>5.8116144374943302</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.6027432620799299E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.109930730947915</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.23069115334722401</v>
+      </c>
+      <c r="O21" s="20">
+        <v>0.118883105638646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.17553673937943901</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.31832596020777398</v>
+      </c>
+      <c r="J22" s="2">
+        <v>11.760970721361099</v>
+      </c>
+      <c r="K22" s="27">
+        <v>4.08494447364943</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.13071393396683301</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3.8068149991010103E-2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.26933594333303301</v>
+      </c>
+      <c r="O22" s="20">
+        <v>0.14603934243029201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>0.116892782686309</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.2934931077558698</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.33374452769917601</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.91471013938045498</v>
+      </c>
+      <c r="L23" s="2">
+        <v>4.5911584333651202E-2</v>
+      </c>
+      <c r="M23" s="2">
+        <v>6.4362697064640397E-3</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.11369054507747001</v>
+      </c>
+      <c r="O23" s="20">
+        <v>5.5346133039195403E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>8.2324488260231796E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.7136704506219103E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>13.097891557560899</v>
+      </c>
+      <c r="K24" s="27">
+        <v>4.4091175834424501</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4.5020379922487801E-2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3.5292030270071199E-3</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.42199803506168498</v>
+      </c>
+      <c r="O24" s="20">
+        <v>0.15684920600372601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>6997.3201902464998</v>
+      </c>
+      <c r="I25" s="1">
+        <v>99391.246463065094</v>
+      </c>
+      <c r="J25" s="1">
+        <v>13.317330177761001</v>
+      </c>
+      <c r="K25" s="27">
+        <v>35467.294661163098</v>
+      </c>
+      <c r="L25" s="2">
+        <v>5759.27376608752</v>
+      </c>
+      <c r="M25" s="2">
+        <v>580.36401358335797</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1.5567393576875601</v>
+      </c>
+      <c r="O25" s="21">
+        <v>2113.73150634285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1">
+        <v>255.09747253466199</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="2">
+        <v>209.955040112918</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1">
+        <v>5.61879396768422</v>
+      </c>
+      <c r="I27" s="1">
+        <v>22.224896729219001</v>
+      </c>
+      <c r="J27" s="1">
+        <v>85.488550538707997</v>
+      </c>
+      <c r="K27" s="27">
+        <v>37.777413745203702</v>
+      </c>
+      <c r="L27" s="2">
+        <v>5.0668532005223303</v>
+      </c>
+      <c r="M27" s="2">
+        <v>6.3528274687432496E-2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.21329944373467499</v>
+      </c>
+      <c r="O27" s="21">
+        <v>1.78122697298148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>2.3154573268105101</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.72896617053816704</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3.41346756028999E-2</v>
+      </c>
+      <c r="K28" s="27">
+        <v>1.02618605765052</v>
+      </c>
+      <c r="L28" s="2">
+        <v>6.2623331904271504</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.44022516919249699</v>
+      </c>
+      <c r="N28" s="2">
+        <v>4.6988964693988701E-2</v>
+      </c>
+      <c r="O28" s="21">
+        <v>2.2498491081045402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>4178.9620603786298</v>
+      </c>
+      <c r="I29" s="1">
+        <v>111765.06741173399</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="2">
+        <v>3439.5687655884699</v>
+      </c>
+      <c r="M29" s="2">
+        <v>652.61736166465198</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>2.6787250623109</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.701184030783084</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3.3968570118549903E-2</v>
+      </c>
+      <c r="K30" s="27">
+        <v>1.13795922107084</v>
+      </c>
+      <c r="L30" s="2">
+        <v>7.2588015025819299</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.42535561635687003</v>
+      </c>
+      <c r="N30" s="2">
+        <v>4.71378097551177E-2</v>
+      </c>
+      <c r="O30" s="21">
+        <v>2.5770983095646298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="20"/>
+    </row>
+    <row r="35" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C36" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C37" s="24"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18BBA87-5FC3-D74F-8777-63AA639FAB4F}">
   <dimension ref="A2:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,38 +5958,38 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1938,38 +6422,38 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
